--- a/RESTAURANT_TASK_TRIAL_07.02.2026.xlsx
+++ b/RESTAURANT_TASK_TRIAL_07.02.2026.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\Jiya_Github\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A36B1CB-6676-4113-A7C9-EBD1BC32C17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F2CA65-43CE-4F76-A44D-BBAADE27354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65E9049E-9EF0-4776-AC59-705703086B8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{65E9049E-9EF0-4776-AC59-705703086B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_CATEGORY">#N/A</definedName>
@@ -23,13 +24,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -787,7 +788,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[RESTAURANT_TASK.xlsx]Sheet3!PivotTable1</c:name>
+    <c:name>[RESTAURANT_TASK_TRIAL_07.02.2026.xlsx]Sheet3!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -853,7 +854,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1845,8 +1846,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="REGION">
@@ -1869,7 +1870,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1923,8 +1924,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="CATEGORY">
@@ -1947,7 +1948,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2754,7 +2755,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{451C541D-3A56-4F24-A277-9D8018B388BD}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{451C541D-3A56-4F24-A277-9D8018B388BD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -10302,7 +10303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6867E0D3-9CFD-4A72-94C5-4D028F95D2D7}">
   <dimension ref="A3:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -10758,4 +10759,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3EDF97-931C-46E9-841D-5A2134B99BCE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>